--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\santino\my-vite-base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\santino\vite-bash\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="79">
   <si>
     <t>gameName</t>
   </si>
@@ -30,58 +30,242 @@
     <t>categoryIdList</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>祕寶探險</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
-    <t>神鬼戰士</t>
-  </si>
-  <si>
-    <t>4, 1, 2</t>
-  </si>
-  <si>
-    <t>忍 Kunoichi</t>
-  </si>
-  <si>
-    <t>強棒 HOMERUN</t>
-  </si>
-  <si>
-    <t>4,1, 2</t>
-  </si>
-  <si>
-    <t>異星進化UPUP</t>
-  </si>
-  <si>
-    <t>魔獸世界</t>
-  </si>
-  <si>
-    <t>狂野海盜</t>
-  </si>
-  <si>
-    <t>麻將大贏家</t>
-  </si>
-  <si>
     <t>1, 6</t>
   </si>
   <si>
-    <t>一路連發</t>
-  </si>
-  <si>
-    <t>翻倍金字塔</t>
-  </si>
-  <si>
-    <t>推幣冠軍</t>
-  </si>
-  <si>
-    <t>超級大紅包</t>
-  </si>
-  <si>
-    <t>二人麻將</t>
+    <t>小豬銀行</t>
+  </si>
+  <si>
+    <t>牛運寶藏</t>
+  </si>
+  <si>
+    <t>魔幻王牌</t>
+  </si>
+  <si>
+    <t>超級牛B</t>
+  </si>
+  <si>
+    <t>聚寶盆</t>
+  </si>
+  <si>
+    <t>超級牛B 豪華版</t>
+  </si>
+  <si>
+    <t>星際水果霸</t>
+  </si>
+  <si>
+    <t>瘋狂金魚</t>
+  </si>
+  <si>
+    <t>芝麻開門2</t>
+  </si>
+  <si>
+    <t>雷神之鎚</t>
+  </si>
+  <si>
+    <t>大三元</t>
+  </si>
+  <si>
+    <t>金剛</t>
+  </si>
+  <si>
+    <t>芝麻開門</t>
+  </si>
+  <si>
+    <t>泰好玩</t>
+  </si>
+  <si>
+    <t>變臉</t>
+  </si>
+  <si>
+    <t>台灣黑熊</t>
+  </si>
+  <si>
+    <t>龍舞</t>
+  </si>
+  <si>
+    <t>花開富貴</t>
+  </si>
+  <si>
+    <t>浪花2</t>
+  </si>
+  <si>
+    <t>變臉2</t>
+  </si>
+  <si>
+    <t>飛龍在天</t>
+  </si>
+  <si>
+    <t>天降財神</t>
+  </si>
+  <si>
+    <t>飛鳥派對</t>
+  </si>
+  <si>
+    <t>富豪哥2</t>
+  </si>
+  <si>
+    <t>芝麻開門 Mega</t>
+  </si>
+  <si>
+    <t>王牌</t>
+  </si>
+  <si>
+    <t>馬上有錢</t>
+  </si>
+  <si>
+    <t>王牌特工</t>
+  </si>
+  <si>
+    <t>月光秘寶</t>
+  </si>
+  <si>
+    <t>喜洋羊</t>
+  </si>
+  <si>
+    <t>幸運熊貓</t>
+  </si>
+  <si>
+    <t>拳王</t>
+  </si>
+  <si>
+    <t>鯉躍龍門</t>
+  </si>
+  <si>
+    <t>骰寶無雙</t>
+  </si>
+  <si>
+    <t>幸運招財貓</t>
+  </si>
+  <si>
+    <t>元素連結火</t>
+  </si>
+  <si>
+    <t>過新年</t>
+  </si>
+  <si>
+    <t>唐伯虎點秋香2</t>
+  </si>
+  <si>
+    <t>幸運龍</t>
+  </si>
+  <si>
+    <t>金錢豹</t>
+  </si>
+  <si>
+    <t>暴發虎</t>
+  </si>
+  <si>
+    <t>小瑪莉</t>
+  </si>
+  <si>
+    <t>新年快樂</t>
+  </si>
+  <si>
+    <t>飛禽走獸</t>
+  </si>
+  <si>
+    <t>啤酒大亨</t>
+  </si>
+  <si>
+    <t>花果山傳奇</t>
+  </si>
+  <si>
+    <t>超激發水果盤</t>
+  </si>
+  <si>
+    <t>瘋狂金剛</t>
+  </si>
+  <si>
+    <t>發財足球王</t>
+  </si>
+  <si>
+    <t>財神賓果彩</t>
+  </si>
+  <si>
+    <t>金雞福彩</t>
+  </si>
+  <si>
+    <t>快樂六星彩</t>
+  </si>
+  <si>
+    <t>財神捕魚</t>
+  </si>
+  <si>
+    <t>五龍捕魚</t>
+  </si>
+  <si>
+    <t>捕魚一路發</t>
+  </si>
+  <si>
+    <t>龍王捕魚</t>
+  </si>
+  <si>
+    <t>獵龍高手</t>
+  </si>
+  <si>
+    <t>龍王捕魚2</t>
+  </si>
+  <si>
+    <t>捕魚迪斯可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 4 </t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>1, 3, 4</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>localizationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameClubId</t>
+  </si>
+  <si>
+    <t>serverId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirdPartyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,19 +656,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,202 +682,2512 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>3010</v>
+        <v>14091</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE( "RGRICH_", B2)</f>
-        <v>RGRICH_3010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("Game_JDB_",B2)</f>
+        <v>Game_JDB_14091</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>1002300079</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2">
+        <v>14091</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3007</v>
+        <v>14094</v>
       </c>
       <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D60" si="0">CONCATENATE("Game_JDB_",B3)</f>
+        <v>Game_JDB_14094</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>1002300079</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3">
+        <v>14094</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D14" si="0">CONCATENATE( "RGRICH_", B3)</f>
-        <v>RGRICH_3007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>14088</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14088</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>1002300079</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>14088</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>3009</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5">
-        <v>3013</v>
+        <v>14036</v>
       </c>
       <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14036</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>1002300079</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>14036</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>14042</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14042</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>1002300079</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6">
+        <v>14042</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>14045</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14045</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>1002300079</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7">
+        <v>14045</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>3006</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>14085</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14085</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>1002300079</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>14085</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>3001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>8011</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8011</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>1002300079</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9">
+        <v>8011</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>3002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>8048</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8048</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <v>1002300079</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10">
+        <v>8048</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>3005</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11">
+        <v>14041</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14041</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>1002300079</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11">
+        <v>14041</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_3005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>14063</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14063</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>1002300079</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12">
+        <v>14063</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>6001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_6001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>14055</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14055</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>1002300079</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>14055</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>6002</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_6002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>8020</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8020</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>1002300079</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14">
+        <v>8020</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>6003</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_6003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>8013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8013</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>1002300079</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>8013</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>6006</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_6006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>8003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8003</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>1002300079</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16">
+        <v>8003</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>6007</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>RGRICH_6007</v>
+      <c r="B17">
+        <v>8006</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8006</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17">
+        <v>1002300079</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17">
+        <v>8006</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>14035</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14035</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>1002300079</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18">
+        <v>14035</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>14065</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14065</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <v>1002300079</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19">
+        <v>14065</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>14053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14053</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>1002300079</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20">
+        <v>14053</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>8047</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8047</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>1002300079</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21">
+        <v>8047</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>14010</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14010</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22">
+        <v>1002300079</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22">
+        <v>14010</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>14084</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14084</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23">
+        <v>1002300079</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23">
+        <v>14084</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>14033</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14033</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>1002300079</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24">
+        <v>14033</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>14079</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14079</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>1002300079</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25">
+        <v>14079</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>14086</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14086</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>1002300079</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26">
+        <v>14086</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>14077</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14077</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>1002300079</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27">
+        <v>14077</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>8050</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8050</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28">
+        <v>1002300079</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28">
+        <v>8050</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>14016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14016</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>1002300079</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29">
+        <v>14016</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>8015</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8015</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30">
+        <v>1002300079</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30">
+        <v>8015</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>8051</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8051</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31">
+        <v>1002300079</v>
+      </c>
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31">
+        <v>8051</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>8012</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8012</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32">
+        <v>1002300079</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32">
+        <v>8012</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>8009</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8009</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33">
+        <v>1002300079</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33">
+        <v>8009</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>14051</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14051</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34">
+        <v>1002300079</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34">
+        <v>14051</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>15003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_15003</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <v>1002300079</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>15003</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>14075</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14075</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <v>1002300079</v>
+      </c>
+      <c r="I36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36">
+        <v>14075</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>14080</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_14080</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37">
+        <v>1002300079</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37">
+        <v>14080</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>8017</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8017</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38">
+        <v>1002300079</v>
+      </c>
+      <c r="I38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38">
+        <v>8017</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>8049</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8049</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <v>1002300079</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39">
+        <v>8049</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>8001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8001</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40">
+        <v>1002300079</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40">
+        <v>8001</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>8033</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8033</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41">
+        <v>1002300079</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41">
+        <v>8033</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>8032</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_8032</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42">
+        <v>1002300079</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42">
+        <v>8032</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>9001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9001</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43">
+        <v>1002300079</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43">
+        <v>9001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>9002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9002</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44">
+        <v>1002300079</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44">
+        <v>9002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>9003</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9003</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45">
+        <v>1002300079</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45">
+        <v>9003</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>9004</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9004</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46">
+        <v>1002300079</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46">
+        <v>9004</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>9006</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9006</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47">
+        <v>1002300079</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47">
+        <v>9006</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>9007</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9007</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <v>1002300079</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48">
+        <v>9007</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>9008</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9008</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49">
+        <v>1002300079</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49">
+        <v>9008</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>9009</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_9009</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50">
+        <v>1002300079</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50">
+        <v>9009</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>12001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_12001</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51">
+        <v>1002300079</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J51">
+        <v>12001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>12002</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_12002</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52">
+        <v>1002300079</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52">
+        <v>12002</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>12003</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_12003</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53">
+        <v>1002300079</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53">
+        <v>12003</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>7003</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7003</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54">
+        <v>1002300079</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54">
+        <v>7003</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>7004</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7004</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55">
+        <v>1002300079</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55">
+        <v>7004</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>7005</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7005</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56">
+        <v>1002300079</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56">
+        <v>7005</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>7001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7001</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57">
+        <v>1002300079</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57">
+        <v>7001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>7006</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7006</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58">
+        <v>1002300079</v>
+      </c>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58">
+        <v>7006</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>7002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7002</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59">
+        <v>1002300079</v>
+      </c>
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59">
+        <v>7002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>7007</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Game_JDB_7007</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60">
+        <v>1002300079</v>
+      </c>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60">
+        <v>7007</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +3195,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A15:D22 A2:C2 A3:C14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>